--- a/Challenge Groups.xlsx
+++ b/Challenge Groups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>C&amp;M</t>
   </si>
@@ -327,6 +327,27 @@
   </si>
   <si>
     <t>CHALLENGE</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>ETHIOPIA</t>
+  </si>
+  <si>
+    <t>LIBANON</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
+  </si>
+  <si>
+    <t>TUNISIA/IT</t>
+  </si>
+  <si>
+    <t>MOROCO</t>
   </si>
 </sst>
 </file>
@@ -420,9 +441,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,6 +466,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +847,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -840,43 +861,43 @@
   <sheetData>
     <row r="1" spans="1:15" ht="130.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -976,7 +997,9 @@
       <c r="I7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="L7" s="1" t="s">
         <v>12</v>
       </c>
@@ -986,7 +1009,9 @@
       <c r="N7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1027,376 +1052,386 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="L22" s="8" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="L22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="E23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="9" t="s">
+      <c r="J23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="E24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="9" t="s">
+      <c r="J24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="L25" s="9" t="s">
+      <c r="J25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
